--- a/FeuilleTemps.xlsx
+++ b/FeuilleTemps.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="1" r:id="rId1"/>
-    <sheet name="09-21" sheetId="2" r:id="rId2"/>
-    <sheet name="09-28" sheetId="3" r:id="rId3"/>
+    <sheet name="09-28" sheetId="2" r:id="rId2"/>
+    <sheet name="10-05" sheetId="3" r:id="rId3"/>
+    <sheet name="10-12" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Code">Infos!$F$4:$F$10</definedName>
     <definedName name="Membres">Infos!$B$4:$B$9</definedName>
-    <definedName name="Semaine" localSheetId="2">'09-28'!$B$5:$F$60</definedName>
-    <definedName name="Semaine">'09-21'!$B$5:$F$60</definedName>
+    <definedName name="Semaine" localSheetId="2">'10-05'!$B$5:$F$60</definedName>
+    <definedName name="Semaine">'09-28'!$B$5:$F$60</definedName>
     <definedName name="Temps">Infos!$I$4:$I$13</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="60">
   <si>
     <t>Membres</t>
   </si>
@@ -101,6 +102,108 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Documentation sprint 2</t>
+  </si>
+  <si>
+    <t>Recontre Client</t>
+  </si>
+  <si>
+    <t>DCC et DCR</t>
+  </si>
+  <si>
+    <t>Plateforme</t>
+  </si>
+  <si>
+    <t>Testes</t>
+  </si>
+  <si>
+    <t>Plateforme, interfaces</t>
+  </si>
+  <si>
+    <t>Plateforme, version</t>
+  </si>
+  <si>
+    <t>semaine</t>
+  </si>
+  <si>
+    <t>Repondre aux questions et organisation du travail</t>
+  </si>
+  <si>
+    <t>Creation d'interfaces</t>
+  </si>
+  <si>
+    <t>Recontre Client DN employé</t>
+  </si>
+  <si>
+    <t>Inspection des interfaces</t>
+  </si>
+  <si>
+    <t>DN employé modification post rencontre</t>
+  </si>
+  <si>
+    <t>DN équipe creation</t>
+  </si>
+  <si>
+    <t>Script de creation et de contrainte</t>
+  </si>
+  <si>
+    <t>Prog de la table jeu</t>
+  </si>
+  <si>
+    <t>Hiérarchisation du projet et intégration du code des autres</t>
+  </si>
+  <si>
+    <t>Correction des interfaces de équipe</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>Tests des interfaces d'équipe et de la DN ajouter une équipe</t>
+  </si>
+  <si>
+    <t>Prog table mode</t>
+  </si>
+  <si>
+    <t>Prog table genre</t>
+  </si>
+  <si>
+    <t>Régler problème table genre et mode</t>
+  </si>
+  <si>
+    <t>Rencontre des inspections</t>
+  </si>
+  <si>
+    <t>Revue d'un DN avec alex</t>
+  </si>
+  <si>
+    <t>Inspection des interfaces et des descriptions narratives</t>
+  </si>
+  <si>
+    <t>Création des scripts de création et de contraintes pour Employé</t>
+  </si>
+  <si>
+    <t>Programmation d'Authentification</t>
+  </si>
+  <si>
+    <t>Correction DCR/DCC</t>
+  </si>
+  <si>
+    <t>Gestion feuille de temps</t>
+  </si>
+  <si>
+    <t>DCO</t>
+  </si>
+  <si>
+    <t>Requete BD</t>
+  </si>
+  <si>
+    <t>Controle employer</t>
+  </si>
+  <si>
+    <t>Ajustement de BD</t>
   </si>
 </sst>
 </file>
@@ -266,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -284,6 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,7 +695,7 @@
   <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,7 +847,7 @@
   <dimension ref="B3:P60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,42 +897,62 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="12"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="12">
+        <v>42281</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="16">
+        <v>2.5</v>
+      </c>
       <c r="J5" s="15">
         <f>SUMIF($C5:$C60,J$4,$F$5:$F$60)</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="K5" s="15">
         <f t="shared" ref="K5:N5" si="0">SUMIF($C5:$C60,K$4,$F$5:$F$60)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M5" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="N5" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O5" s="15">
         <f>SUMIF($C5:$C60,O$4,$F$5:$F$60)</f>
-        <v>0</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="12"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="12">
+        <v>42277</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="16">
+        <v>3</v>
+      </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="14"/>
@@ -839,10 +963,18 @@
     </row>
     <row r="7" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="12"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="16"/>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="16">
+        <v>2.5</v>
+      </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -852,11 +984,21 @@
       <c r="P7" s="14"/>
     </row>
     <row r="8" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="12"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="16"/>
+      <c r="B8" s="12">
+        <v>42275</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="16">
+        <v>4.5</v>
+      </c>
       <c r="J8" s="15" t="s">
         <v>15</v>
       </c>
@@ -880,235 +1022,475 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="12"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="16"/>
+      <c r="B9" s="12">
+        <v>42276</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="16">
+        <v>5</v>
+      </c>
       <c r="J9" s="15">
         <f>SUMIF($D5:$D60,J$8,$F$5:$F$60)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" ref="K9:P9" si="1">SUMIF($D5:$D60,K$8,$F$5:$F$60)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L9" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M9" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N9" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O9" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P9" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="16"/>
+      <c r="B10" s="12">
+        <v>42277</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="16"/>
+      <c r="B11" s="12">
+        <v>42278</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="16"/>
+      <c r="B12" s="12">
+        <v>42279</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="16"/>
+      <c r="B13" s="12">
+        <v>42277</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="16"/>
+      <c r="B14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="16"/>
+      <c r="B15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="16"/>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="16"/>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="16"/>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="16">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="16"/>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="12"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="16"/>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="12"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="16"/>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="12"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="16"/>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="12"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="16"/>
+      <c r="C23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="16">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="12"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="16"/>
+      <c r="C24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="12"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="16"/>
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="16">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="12"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="16"/>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="12"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="16"/>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="12"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="16"/>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="16">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="12"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="16"/>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="16">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="12"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="16"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="12"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="16"/>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="12"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="16"/>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="12"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="16"/>
+      <c r="C33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="12"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="16"/>
+      <c r="C34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="12"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="16"/>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="12"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="16"/>
+      <c r="C36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="12"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="16"/>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="16">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="12"/>
@@ -1272,16 +1654,17 @@
       <c r="F60" s="16"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Membre non valide" promptTitle="Membres" prompt="Saisir votre nom" sqref="C5:C60">
       <formula1>Membres</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Code Catégories" error="Saisir code dans la liste" promptTitle="Code de Catégories" prompt="Saisir code de la catégorie" sqref="D5:E60">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Code Catégories" error="Saisir code dans la liste" promptTitle="Code de Catégories" prompt="Saisir code de la catégorie" sqref="D5:D60">
       <formula1>Code</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Temps" prompt="Entrez le temps accordée à cette tâche" sqref="F5:F60">
       <formula1>Temps</formula1>
     </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Code Catégories" error="Saisir code dans la liste" promptTitle="Code de Catégories" prompt="Saisir code de la catégorie" sqref="E5:E60"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1295,7 +1678,7 @@
   <dimension ref="B3:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1345,6 +1728,612 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="12">
+        <v>42282</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="16">
+        <v>2</v>
+      </c>
+      <c r="J5" s="15">
+        <f>SUMIF($C5:$C60,J$4,$F$5:$F$60)</f>
+        <v>2</v>
+      </c>
+      <c r="K5" s="15">
+        <f t="shared" ref="K5:N5" si="0">SUMIF($C5:$C60,K$4,$F$5:$F$60)</f>
+        <v>2</v>
+      </c>
+      <c r="L5" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M5" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O5" s="15">
+        <f>SUMIF($C5:$C60,O$4,$F$5:$F$60)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="B6" s="12">
+        <v>42282</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="16">
+        <v>2</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="12">
+        <v>42282</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="16">
+        <v>2</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="12">
+        <v>42282</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="16">
+        <v>2</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="12">
+        <v>42282</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="16">
+        <v>2</v>
+      </c>
+      <c r="J9" s="15">
+        <f>SUMIF($D5:$D60,J$8,$F$5:$F$60)</f>
+        <v>2</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" ref="K9:P9" si="1">SUMIF($D5:$D60,K$8,$F$5:$F$60)</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="M9" s="15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
+        <v>42282</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="12"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="12"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="12"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="12"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="12"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="12"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="12"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="12"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="12"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="12"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="12"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="12"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="12"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="12"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="12"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="12"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="12"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="12"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="12"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="12"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="12"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="12"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="12"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="12"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="12"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="12"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="12"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="12"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="12"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="12"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="12"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="12"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="12"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="12"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="12"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="12"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="12"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="12"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="16"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="12"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="12"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="16"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="12"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="16"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="12"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="16"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="12"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="16"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="12"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="16"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="12"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="16"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="12"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="16"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="12"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="16"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="12"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="16"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="12"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="16"/>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Temps" prompt="Entrez le temps accordée à cette tâche" sqref="F5:F60">
+      <formula1>Temps</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Code Catégories" error="Saisir code dans la liste" promptTitle="Code de Catégories" prompt="Saisir code de la catégorie" sqref="D5:D60">
+      <formula1>Code</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Membre non valide" promptTitle="Membres" prompt="Saisir votre nom" sqref="C5:C60">
+      <formula1>Membres</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Code Catégories" error="Saisir code dans la liste" promptTitle="Code de Catégories" prompt="Saisir code de la catégorie" sqref="E5:E60"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:P60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="45.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="12"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1825,14 +2814,14 @@
     </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Membre non valide" promptTitle="Membres" prompt="Saisir votre nom" sqref="C5:C60">
+      <formula1>Membres</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Code Catégories" error="Saisir code dans la liste" promptTitle="Code de Catégories" prompt="Saisir code de la catégorie" sqref="D5:D60">
+      <formula1>Code</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Temps" prompt="Entrez le temps accordée à cette tâche" sqref="F5:F60">
       <formula1>Temps</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Code Catégories" error="Saisir code dans la liste" promptTitle="Code de Catégories" prompt="Saisir code de la catégorie" sqref="D5:E60">
-      <formula1>Code</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Membre non valide" promptTitle="Membres" prompt="Saisir votre nom" sqref="C5:C60">
-      <formula1>Membres</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FeuilleTemps.xlsx
+++ b/FeuilleTemps.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="62">
   <si>
     <t>Membres</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>Ajustement de BD</t>
+  </si>
+  <si>
+    <t>Description Narrative Authentification</t>
+  </si>
+  <si>
+    <t>Programmation Jeu</t>
   </si>
 </sst>
 </file>
@@ -1678,7 +1684,7 @@
   <dimension ref="B3:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1753,11 +1759,11 @@
       </c>
       <c r="L5" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N5" s="15">
         <f t="shared" si="0"/>
@@ -1765,7 +1771,7 @@
       </c>
       <c r="O5" s="15">
         <f>SUMIF($C5:$C60,O$4,$F$5:$F$60)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="18" x14ac:dyDescent="0.35">
@@ -1830,7 +1836,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>15</v>
@@ -1872,7 +1878,7 @@
       </c>
       <c r="J9" s="15">
         <f>SUMIF($D5:$D60,J$8,$F$5:$F$60)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" ref="K9:P9" si="1">SUMIF($D5:$D60,K$8,$F$5:$F$60)</f>
@@ -1880,7 +1886,7 @@
       </c>
       <c r="L9" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M9" s="15">
         <f t="shared" si="1"/>
@@ -1917,18 +1923,38 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="16"/>
+      <c r="B11" s="12">
+        <v>42282</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="16"/>
+      <c r="B12" s="12">
+        <v>42282</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="12"/>

--- a/FeuilleTemps.xlsx
+++ b/FeuilleTemps.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="64">
   <si>
     <t>Membres</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>Programmation Jeu</t>
+  </si>
+  <si>
+    <t>Réunion SCRUM</t>
+  </si>
+  <si>
+    <t>Réunion PROF</t>
   </si>
 </sst>
 </file>
@@ -1683,8 +1689,8 @@
   </sheetPr>
   <dimension ref="B3:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1751,27 +1757,27 @@
       </c>
       <c r="J5" s="15">
         <f>SUMIF($C5:$C60,J$4,$F$5:$F$60)</f>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K5" s="15">
         <f t="shared" ref="K5:N5" si="0">SUMIF($C5:$C60,K$4,$F$5:$F$60)</f>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="M5" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N5" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O5" s="15">
         <f>SUMIF($C5:$C60,O$4,$F$5:$F$60)</f>
-        <v>3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="18" x14ac:dyDescent="0.35">
@@ -1898,7 +1904,7 @@
       </c>
       <c r="O9" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P9" s="15">
         <f t="shared" si="1"/>
@@ -1957,88 +1963,208 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="16"/>
+      <c r="B13" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="16"/>
+      <c r="B14" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="16"/>
+      <c r="B15" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="16"/>
+      <c r="B16" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="16"/>
+      <c r="B17" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="16"/>
+      <c r="B18" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="16"/>
+      <c r="B19" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="16"/>
+      <c r="B20" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="16"/>
+      <c r="B21" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="16"/>
+      <c r="B22" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="16"/>
+      <c r="B23" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="16"/>
+      <c r="B24" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="12"/>
